--- a/Papers/An Extensible Framework to Validate and Build Dataset Profiles/figures/results_analysis.xlsx
+++ b/Papers/An Extensible Framework to Validate and Build Dataset Profiles/figures/results_analysis.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="18240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="23540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>General information</t>
   </si>
@@ -130,6 +130,81 @@
   </si>
   <si>
     <t>documentation</t>
+  </si>
+  <si>
+    <t>vocabulary_id</t>
+  </si>
+  <si>
+    <t>url-type</t>
+  </si>
+  <si>
+    <t>mimetype_inner</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>cache_url</t>
+  </si>
+  <si>
+    <t>webstore_url</t>
+  </si>
+  <si>
+    <t>license_url</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>license_title</t>
+  </si>
+  <si>
+    <t>cache_last_updated</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>last_modified</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>maintainer_email</t>
+  </si>
+  <si>
+    <t>maintainer</t>
+  </si>
+  <si>
+    <t>author_email</t>
+  </si>
+  <si>
+    <t>organization_image_url</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>LOD Cloud</t>
+  </si>
+  <si>
+    <t>Field Error</t>
+  </si>
+  <si>
+    <t>Metadata Type</t>
+  </si>
+  <si>
+    <t>OpenAfrica</t>
+  </si>
+  <si>
+    <t>general</t>
   </si>
 </sst>
 </file>
@@ -185,7 +260,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -205,13 +280,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -221,6 +302,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -230,6 +313,8 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -245,7 +330,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -308,13 +393,13 @@
                   <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.00">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0.642857142857143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -365,10 +450,10 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -416,7 +501,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.411764705882353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,7 +549,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.8</c:v>
@@ -482,11 +567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="166549760"/>
-        <c:axId val="166567936"/>
+        <c:axId val="2107258632"/>
+        <c:axId val="2109677176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="166549760"/>
+        <c:axId val="2107258632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -495,7 +580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166567936"/>
+        <c:crossAx val="2109677176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -503,10 +588,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166567936"/>
+        <c:axId val="2109677176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -547,7 +632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166549760"/>
+        <c:crossAx val="2107258632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -563,7 +648,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -572,7 +657,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -638,10 +723,10 @@
                   <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41176470588235292</c:v>
+                  <c:v>0.411764705882353</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.166666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,10 +774,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -788,10 +873,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6428571428571429</c:v>
+                  <c:v>0.642857142857143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.8</c:v>
@@ -809,11 +894,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169748736"/>
-        <c:axId val="169754624"/>
+        <c:axId val="2107311064"/>
+        <c:axId val="2107314184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169748736"/>
+        <c:axId val="2107311064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169754624"/>
+        <c:crossAx val="2107314184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,10 +915,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169754624"/>
+        <c:axId val="2107314184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="1.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -861,7 +946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169748736"/>
+        <c:crossAx val="2107311064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -877,7 +962,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -886,7 +971,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -986,7 +1071,7 @@
                   <c:v>95.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>77.900000000000006</c:v>
+                  <c:v>77.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>96.91</c:v>
@@ -1025,11 +1110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="169783296"/>
-        <c:axId val="169785216"/>
+        <c:axId val="2107343992"/>
+        <c:axId val="2107349448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="169783296"/>
+        <c:axId val="2107343992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,7 +1142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169785216"/>
+        <c:crossAx val="2107349448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1065,10 +1150,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="169785216"/>
+        <c:axId val="2107349448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1104,7 +1189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169783296"/>
+        <c:crossAx val="2107343992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1115,7 +1200,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1124,7 +1209,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1176,22 +1261,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1220,7 +1305,205 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LOD Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$37:$O$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>access</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>provenance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ownership</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$37:$P$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>94.96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenAfrica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$O$37:$O$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>general</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>access</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>provenance</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ownership</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$37:$Q$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>53.752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.20400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2124129352"/>
+        <c:axId val="2124130760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2124129352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124130760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2124130760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124129352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1343,6 +1626,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1673,18 +1986,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="G14" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -1698,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1715,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1729,7 +2046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1737,7 +2054,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1751,7 +2068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>2</v>
@@ -1765,8 +2082,21 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1782,8 +2112,14 @@
       <c r="E9" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1797,8 +2133,11 @@
       <c r="E10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1808,8 +2147,11 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1821,8 +2163,11 @@
       <c r="E12" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1835,8 +2180,20 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1855,8 +2212,11 @@
         <f>9/14</f>
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -1870,8 +2230,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1879,8 +2242,11 @@
         <f>7/17</f>
         <v>0.41176470588235292</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1892,8 +2258,11 @@
         <f>4/5</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1906,8 +2275,20 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1927,8 +2308,11 @@
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1938,16 +2322,22 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B23">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
@@ -1962,8 +2352,11 @@
         <f>4/5</f>
         <v>0.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="N24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -1971,159 +2364,448 @@
         <v>96.91</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="2">
         <v>95.88</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" t="s">
+        <v>59</v>
+      </c>
+      <c r="P36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="2">
         <v>81.55</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37">
+        <f>AVERAGE(L37:L42)</f>
+        <v>94.96</v>
+      </c>
+      <c r="Q37">
+        <f>AVERAGE(M37:M42)</f>
+        <v>60.300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="2">
         <v>95.51</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J38" s="3"/>
+      <c r="K38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>100</v>
+      </c>
+      <c r="M38">
+        <v>100</v>
+      </c>
+      <c r="O38" t="s">
+        <v>42</v>
+      </c>
+      <c r="P38">
+        <f>AVERAGE(L43:L47)</f>
+        <v>58.024000000000001</v>
+      </c>
+      <c r="Q38">
+        <f>AVERAGE(M43:M47)</f>
+        <v>50.018000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="2">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J39" s="3"/>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39">
+        <v>96.82</v>
+      </c>
+      <c r="M39">
+        <v>87.99</v>
+      </c>
+      <c r="O39" t="s">
+        <v>7</v>
+      </c>
+      <c r="P39">
+        <f>AVERAGE(L48:L52)</f>
+        <v>83.938000000000002</v>
+      </c>
+      <c r="Q39">
+        <f>AVERAGE(M48:M52)</f>
+        <v>53.751999999999995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" t="s">
         <v>21</v>
       </c>
       <c r="B40" s="2">
         <v>95.88</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J40" s="3"/>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+      <c r="L40">
+        <v>95.88</v>
+      </c>
+      <c r="M40">
+        <v>88.01</v>
+      </c>
+      <c r="O40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P40">
+        <f>AVERAGE(L53:L57)</f>
+        <v>26.95</v>
+      </c>
+      <c r="Q40">
+        <f>AVERAGE(M53:M57)</f>
+        <v>51.204000000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="2">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J41" s="3"/>
+      <c r="K41" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41">
+        <v>95.51</v>
+      </c>
+      <c r="M41">
+        <v>47.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="2">
         <v>96.91</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J42" s="3"/>
+      <c r="K42" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42">
+        <v>81.55</v>
+      </c>
+      <c r="M42">
+        <v>33.729999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>24</v>
       </c>
       <c r="B43" s="2">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" t="s">
+        <v>43</v>
+      </c>
+      <c r="L43">
+        <v>96.9</v>
+      </c>
+      <c r="M43">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>25</v>
       </c>
       <c r="B44" s="2">
         <v>91.29</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J44" s="4"/>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44">
+        <v>91.29</v>
+      </c>
+      <c r="M44">
+        <v>57.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>26</v>
       </c>
       <c r="B45" s="2">
         <v>79.87</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J45" s="4"/>
+      <c r="K45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L45">
+        <v>54.44</v>
+      </c>
+      <c r="M45">
+        <v>81.97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="2">
         <v>45.69</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J46" s="4"/>
+      <c r="K46" t="s">
+        <v>46</v>
+      </c>
+      <c r="L46">
+        <v>30.89</v>
+      </c>
+      <c r="M46">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="2">
         <v>9.18</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="M47">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="2">
         <v>96.82</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <v>96.91</v>
+      </c>
+      <c r="M48">
+        <v>88.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="2">
         <v>86.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J49" s="4"/>
+      <c r="K49" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <v>95.88</v>
+      </c>
+      <c r="M49">
+        <v>57.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="J50" s="4"/>
+      <c r="K50" t="s">
+        <v>49</v>
+      </c>
+      <c r="L50">
+        <v>86.8</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="J51" s="4"/>
+      <c r="K51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51">
+        <v>79.87</v>
+      </c>
+      <c r="M51">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="J52" s="4"/>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52">
+        <v>60.23</v>
+      </c>
+      <c r="M52">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
         <v>31</v>
       </c>
       <c r="B53">
         <v>212</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" t="s">
+        <v>52</v>
+      </c>
+      <c r="L53">
+        <v>55.21</v>
+      </c>
+      <c r="M53">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
         <v>32</v>
       </c>
       <c r="B54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J54" s="4"/>
+      <c r="K54" t="s">
+        <v>53</v>
+      </c>
+      <c r="L54">
+        <v>51.35</v>
+      </c>
+      <c r="M54">
+        <v>46.82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
         <v>33</v>
       </c>
       <c r="B55">
         <v>112</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J55" s="4"/>
+      <c r="K55" t="s">
+        <v>54</v>
+      </c>
+      <c r="L55">
+        <v>15.06</v>
+      </c>
+      <c r="M55">
+        <v>89.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
         <v>34</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J56" s="4"/>
+      <c r="K56" t="s">
+        <v>55</v>
+      </c>
+      <c r="L56">
+        <v>10.81</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J57" s="4"/>
+      <c r="K57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M57">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -2132,6 +2814,12 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="J48:J52"/>
+    <mergeCell ref="J53:J57"/>
+    <mergeCell ref="J43:J47"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
